--- a/Data/Data_distribution.xlsx
+++ b/Data/Data_distribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT_REPOS\Beetle_classifier\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F656D8A-6679-44BF-96BA-6515B8F2B540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E90C4D-BDCB-4593-8DCC-612006F7D5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38490" yWindow="-1590" windowWidth="16110" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,21 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">nums!$A$1:$A$157</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -37,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="177">
   <si>
     <t>Species</t>
   </si>
@@ -565,13 +576,16 @@
   </si>
   <si>
     <t>645</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,6 +599,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -594,7 +616,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -602,13 +624,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -913,592 +976,703 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="O1" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K2" t="s">
-        <v>130</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="B2" s="2">
+        <v>615</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3342</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3280</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3458</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3454</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3579</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3641</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1011</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1073</v>
+      </c>
+      <c r="K2" s="2">
+        <v>895</v>
+      </c>
+      <c r="L2" s="2">
+        <v>899</v>
+      </c>
+      <c r="M2" s="2">
+        <v>774</v>
+      </c>
+      <c r="N2" s="2">
+        <v>712</v>
+      </c>
+      <c r="O2" s="3">
+        <f>SUM(B2,C2,I2)</f>
+        <v>4968</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>380</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1542</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1625</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1663</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1833</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1855</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1716</v>
+      </c>
+      <c r="I3" s="2">
+        <v>631</v>
+      </c>
+      <c r="J3" s="2">
+        <v>548</v>
+      </c>
+      <c r="K3" s="2">
+        <v>510</v>
+      </c>
+      <c r="L3" s="2">
+        <v>340</v>
+      </c>
+      <c r="M3" s="2">
+        <v>318</v>
+      </c>
+      <c r="N3" s="2">
+        <v>457</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" ref="O3:O13" si="0">SUM(B3,C3,I3)</f>
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>680</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3194</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3086</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3107</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3219</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3203</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3341</v>
+      </c>
+      <c r="I4" s="2">
+        <v>795</v>
+      </c>
+      <c r="J4" s="2">
+        <v>903</v>
+      </c>
+      <c r="K4" s="2">
+        <v>882</v>
+      </c>
+      <c r="L4" s="2">
+        <v>770</v>
+      </c>
+      <c r="M4" s="2">
+        <v>786</v>
+      </c>
+      <c r="N4" s="2">
+        <v>648</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" si="0"/>
+        <v>4669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2">
+        <v>133</v>
+      </c>
+      <c r="C5" s="2">
+        <v>846</v>
+      </c>
+      <c r="D5" s="2">
+        <v>827</v>
+      </c>
+      <c r="E5" s="2">
+        <v>818</v>
+      </c>
+      <c r="F5" s="2">
+        <v>828</v>
+      </c>
+      <c r="G5" s="2">
+        <v>976</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1011</v>
+      </c>
+      <c r="I5" s="2">
+        <v>269</v>
+      </c>
+      <c r="J5" s="2">
+        <v>288</v>
+      </c>
+      <c r="K5" s="2">
+        <v>297</v>
+      </c>
+      <c r="L5" s="2">
+        <v>287</v>
+      </c>
+      <c r="M5" s="2">
+        <v>139</v>
+      </c>
+      <c r="N5" s="2">
+        <v>104</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="0"/>
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2">
+        <v>208</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1192</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1146</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1123</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1197</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1337</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1413</v>
+      </c>
+      <c r="I6" s="2">
+        <v>362</v>
+      </c>
+      <c r="J6" s="2">
+        <v>408</v>
+      </c>
+      <c r="K6" s="2">
+        <v>431</v>
+      </c>
+      <c r="L6" s="2">
+        <v>357</v>
+      </c>
+      <c r="M6" s="2">
+        <v>217</v>
+      </c>
+      <c r="N6" s="2">
         <v>141</v>
       </c>
-      <c r="M2" t="s">
-        <v>153</v>
-      </c>
-      <c r="N2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J3" t="s">
-        <v>120</v>
-      </c>
-      <c r="K3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L3" t="s">
-        <v>142</v>
-      </c>
-      <c r="M3" t="s">
-        <v>154</v>
-      </c>
-      <c r="N3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" t="s">
-        <v>109</v>
-      </c>
-      <c r="J4" t="s">
-        <v>121</v>
-      </c>
-      <c r="K4" t="s">
-        <v>132</v>
-      </c>
-      <c r="L4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M4" t="s">
-        <v>155</v>
-      </c>
-      <c r="N4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I5" t="s">
-        <v>110</v>
-      </c>
-      <c r="J5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K5" t="s">
-        <v>133</v>
-      </c>
-      <c r="L5" t="s">
-        <v>144</v>
-      </c>
-      <c r="M5" t="s">
-        <v>156</v>
-      </c>
-      <c r="N5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J6" t="s">
-        <v>123</v>
-      </c>
-      <c r="K6" t="s">
-        <v>134</v>
-      </c>
-      <c r="L6" t="s">
-        <v>145</v>
-      </c>
-      <c r="M6" t="s">
-        <v>157</v>
-      </c>
-      <c r="N6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="O6" s="3">
+        <f t="shared" si="0"/>
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7" t="s">
-        <v>112</v>
-      </c>
-      <c r="J7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M7" t="s">
-        <v>158</v>
-      </c>
-      <c r="N7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="2">
+        <v>456</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3127</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3191</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3214</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3121</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3388</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3654</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1015</v>
+      </c>
+      <c r="J7" s="2">
+        <v>951</v>
+      </c>
+      <c r="K7" s="2">
+        <v>928</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1021</v>
+      </c>
+      <c r="M7" s="2">
+        <v>754</v>
+      </c>
+      <c r="N7" s="2">
+        <v>488</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="0"/>
+        <v>4598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" t="s">
-        <v>113</v>
-      </c>
-      <c r="J8" t="s">
-        <v>125</v>
-      </c>
-      <c r="K8" t="s">
-        <v>136</v>
-      </c>
-      <c r="L8" t="s">
-        <v>147</v>
-      </c>
-      <c r="M8" t="s">
-        <v>159</v>
-      </c>
-      <c r="N8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B8" s="2">
+        <v>467</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1678</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1672</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1601</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1664</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1746</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1861</v>
+      </c>
+      <c r="I8" s="2">
+        <v>458</v>
+      </c>
+      <c r="J8" s="2">
+        <v>464</v>
+      </c>
+      <c r="K8" s="2">
+        <v>535</v>
+      </c>
+      <c r="L8" s="2">
+        <v>472</v>
+      </c>
+      <c r="M8" s="2">
+        <v>390</v>
+      </c>
+      <c r="N8" s="2">
+        <v>275</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="0"/>
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" t="s">
-        <v>93</v>
-      </c>
-      <c r="H9" t="s">
-        <v>104</v>
-      </c>
-      <c r="I9" t="s">
-        <v>114</v>
-      </c>
-      <c r="J9" t="s">
-        <v>111</v>
-      </c>
-      <c r="K9" t="s">
-        <v>137</v>
-      </c>
-      <c r="L9" t="s">
-        <v>148</v>
-      </c>
-      <c r="M9" t="s">
-        <v>160</v>
-      </c>
-      <c r="N9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B9" s="2">
+        <v>326</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2443</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2848</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2828</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2552</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2334</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2278</v>
+      </c>
+      <c r="I9" s="2">
+        <v>767</v>
+      </c>
+      <c r="J9" s="2">
+        <v>362</v>
+      </c>
+      <c r="K9" s="2">
+        <v>382</v>
+      </c>
+      <c r="L9" s="2">
+        <v>658</v>
+      </c>
+      <c r="M9" s="2">
+        <v>876</v>
+      </c>
+      <c r="N9" s="2">
+        <v>932</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="0"/>
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" t="s">
-        <v>115</v>
-      </c>
-      <c r="J10" t="s">
-        <v>126</v>
-      </c>
-      <c r="K10" t="s">
-        <v>138</v>
-      </c>
-      <c r="L10" t="s">
-        <v>149</v>
-      </c>
-      <c r="M10" t="s">
-        <v>161</v>
-      </c>
-      <c r="N10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B10" s="2">
+        <v>216</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1312</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1309</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1413</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1396</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1369</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1413</v>
+      </c>
+      <c r="I10" s="2">
+        <v>413</v>
+      </c>
+      <c r="J10" s="2">
+        <v>416</v>
+      </c>
+      <c r="K10" s="2">
+        <v>312</v>
+      </c>
+      <c r="L10" s="2">
+        <v>329</v>
+      </c>
+      <c r="M10" s="2">
+        <v>356</v>
+      </c>
+      <c r="N10" s="2">
+        <v>312</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="0"/>
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" t="s">
-        <v>116</v>
-      </c>
-      <c r="J11" t="s">
-        <v>127</v>
-      </c>
-      <c r="K11" t="s">
-        <v>139</v>
-      </c>
-      <c r="L11" t="s">
-        <v>150</v>
-      </c>
-      <c r="M11" t="s">
-        <v>162</v>
-      </c>
-      <c r="N11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B11" s="2">
+        <v>247</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1337</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1364</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1345</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1338</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1326</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1383</v>
+      </c>
+      <c r="I11" s="2">
+        <v>352</v>
+      </c>
+      <c r="J11" s="2">
+        <v>325</v>
+      </c>
+      <c r="K11" s="2">
+        <v>344</v>
+      </c>
+      <c r="L11" s="2">
+        <v>351</v>
+      </c>
+      <c r="M11" s="2">
+        <v>363</v>
+      </c>
+      <c r="N11" s="2">
+        <v>306</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="0"/>
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" t="s">
-        <v>117</v>
-      </c>
-      <c r="J12" t="s">
-        <v>128</v>
-      </c>
-      <c r="K12" t="s">
-        <v>108</v>
-      </c>
-      <c r="L12" t="s">
-        <v>151</v>
-      </c>
-      <c r="M12" t="s">
-        <v>163</v>
-      </c>
-      <c r="N12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B12" s="2">
+        <v>402</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1749</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1645</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1705</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2064</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1953</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1977</v>
+      </c>
+      <c r="I12" s="2">
+        <v>587</v>
+      </c>
+      <c r="J12" s="2">
+        <v>691</v>
+      </c>
+      <c r="K12" s="2">
+        <v>631</v>
+      </c>
+      <c r="L12" s="2">
+        <v>272</v>
+      </c>
+      <c r="M12" s="2">
+        <v>383</v>
+      </c>
+      <c r="N12" s="2">
+        <v>359</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="0"/>
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" t="s">
-        <v>107</v>
-      </c>
-      <c r="I13" t="s">
-        <v>118</v>
-      </c>
-      <c r="J13" t="s">
-        <v>129</v>
-      </c>
-      <c r="K13" t="s">
-        <v>140</v>
-      </c>
-      <c r="L13" t="s">
-        <v>152</v>
-      </c>
-      <c r="M13" t="s">
-        <v>164</v>
-      </c>
-      <c r="N13" t="s">
-        <v>175</v>
-      </c>
+      <c r="B13" s="2">
+        <v>480</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3240</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3125</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3164</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3205</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3292</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3402</v>
+      </c>
+      <c r="I13" s="2">
+        <v>807</v>
+      </c>
+      <c r="J13" s="2">
+        <v>922</v>
+      </c>
+      <c r="K13" s="2">
+        <v>883</v>
+      </c>
+      <c r="L13" s="2">
+        <v>842</v>
+      </c>
+      <c r="M13" s="2">
+        <v>755</v>
+      </c>
+      <c r="N13" s="2">
+        <v>645</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="0"/>
+        <v>4527</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="5">
+        <f>SUM(B2:B13)</f>
+        <v>4610</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" ref="C14:N14" si="1">SUM(C2:C13)</f>
+        <v>25002</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="1"/>
+        <v>25118</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>25439</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="1"/>
+        <v>25871</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="1"/>
+        <v>26358</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="1"/>
+        <v>27090</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="1"/>
+        <v>7467</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="1"/>
+        <v>7351</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="1"/>
+        <v>7030</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="1"/>
+        <v>6598</v>
+      </c>
+      <c r="M14" s="5">
+        <f t="shared" si="1"/>
+        <v>6111</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" si="1"/>
+        <v>5379</v>
+      </c>
+      <c r="O14" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1521,782 +1695,782 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="A70" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="A71" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="A72" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="A73" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="A74" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="A75" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="A76" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="A77" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="A78" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="A79" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="A80" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="A81" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="A82" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="A83" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="A84" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="A85" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="A86" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="A87" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="A88" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="A89" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="A90" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="A91" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="A92" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="A93" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="A94" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="A95" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="A96" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="A97" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="A98" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="A99" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="A100" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="A101" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="A102" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="A103" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="A104" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="A105" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="A106" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+      <c r="A107" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="A108" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="A109" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="A110" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="A111" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="A112" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="A113" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="A114" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="A115" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="A116" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="A117" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="A118" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+      <c r="A119" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="A120" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="A121" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="A122" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="A123" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="A124" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="A125" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+      <c r="A126" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+      <c r="A127" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="A128" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="A129" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="A130" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="A131" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="A132" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+      <c r="A133" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="A134" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="A135" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="A136" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="A137" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="A138" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+      <c r="A139" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+      <c r="A140" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+      <c r="A141" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+      <c r="A142" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+      <c r="A143" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="A144" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+      <c r="A145" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+      <c r="A146" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+      <c r="A147" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="A148" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+      <c r="A149" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="A150" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+      <c r="A151" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+      <c r="A152" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+      <c r="A153" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+      <c r="A154" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+      <c r="A155" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+      <c r="A156" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+      <c r="A157" t="s">
         <v>175</v>
       </c>
     </row>
